--- a/docs/iLa_SJ2526_Kurse-A1.xlsx
+++ b/docs/iLa_SJ2526_Kurse-A1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guido/IdeaProjects/ila-backend/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACC8F0-0034-2340-B21E-0FF5A4930281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88996E-0E7E-D449-9909-D4FB1EF89E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1300" windowWidth="25120" windowHeight="16400" activeTab="3" xr2:uid="{FD870803-716F-F345-959C-C617E5CA4E3D}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7225,7 +7225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C66861D-5339-7C49-9097-38F4650A3861}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C66861D-5339-7C49-9097-38F4650A3861}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -7472,7 +7472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{704194B0-ADC5-F44A-899B-22D7FE674406}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{704194B0-ADC5-F44A-899B-22D7FE674406}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -7660,7 +7660,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{902AAFE4-D25A-784D-9015-BE704CEDF7DB}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{902AAFE4-D25A-784D-9015-BE704CEDF7DB}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8603,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15983154-4C40-9C40-ACBD-77B4B5D7E0DD}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9789,7 +9789,7 @@
         <v>586</v>
       </c>
       <c r="M29" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="N29" s="5">
         <v>0.47222222222222221</v>
